--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_09_e.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_09_e.xlsx
@@ -34,7 +34,7 @@
     <t>[PopupDialog(dialogHead="$avatar_cerber")] うう、この人たちは悪い奴じゃないよ、ドクター。おいら、戦いたくない……</t>
   </si>
   <si>
-    <t>[PopupDialog(dialogHead="$avatar_cerber")] Aww. They’re not bad people, Doctor, I don’t wanna hurt them...</t>
+    <t>[PopupDialog(dialogHead="$avatar_cerber")] Aww. They're not bad people, Doctor, I don't wanna hurt them...</t>
   </si>
   <si>
     <t>[PopupDialog(dialogHead="$avatar_cerber")] 으으… 쟤네 나쁜 사람 아니야. 박사… 나, 쟤네랑 싸우기 싫어…</t>
